--- a/информатика/лаб. 6/лаб3.xlsx
+++ b/информатика/лаб. 6/лаб3.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Шеннон-Фано" sheetId="1" r:id="rId1"/>
+    <sheet name="Хаффмен" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>а</t>
   </si>
@@ -112,22 +113,254 @@
   </si>
   <si>
     <t>" "</t>
+  </si>
+  <si>
+    <t>Пром. вычисл.</t>
+  </si>
+  <si>
+    <t>l ср</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Длина</t>
+  </si>
+  <si>
+    <t>Символ</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>бит/симв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пробел </t>
+  </si>
+  <si>
+    <t xml:space="preserve">о </t>
+  </si>
+  <si>
+    <t xml:space="preserve">её </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">а </t>
+  </si>
+  <si>
+    <t xml:space="preserve">н </t>
+  </si>
+  <si>
+    <t xml:space="preserve">т </t>
+  </si>
+  <si>
+    <t xml:space="preserve">с </t>
+  </si>
+  <si>
+    <t xml:space="preserve">л </t>
+  </si>
+  <si>
+    <t xml:space="preserve">в </t>
+  </si>
+  <si>
+    <t xml:space="preserve">р </t>
+  </si>
+  <si>
+    <t xml:space="preserve">к </t>
+  </si>
+  <si>
+    <t xml:space="preserve">м </t>
+  </si>
+  <si>
+    <t xml:space="preserve">у </t>
+  </si>
+  <si>
+    <t xml:space="preserve">д </t>
+  </si>
+  <si>
+    <t xml:space="preserve">п </t>
+  </si>
+  <si>
+    <t xml:space="preserve">я </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ъь </t>
+  </si>
+  <si>
+    <t xml:space="preserve">б </t>
+  </si>
+  <si>
+    <t xml:space="preserve">з </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ч </t>
+  </si>
+  <si>
+    <t xml:space="preserve">г </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ж </t>
+  </si>
+  <si>
+    <t xml:space="preserve">х </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ш </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ю </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">щ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">э </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ф </t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>11100</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>01101</t>
+  </si>
+  <si>
+    <t>01111</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>011010</t>
+  </si>
+  <si>
+    <t>111010</t>
+  </si>
+  <si>
+    <t>110001</t>
+  </si>
+  <si>
+    <t>011001</t>
+  </si>
+  <si>
+    <t>111001</t>
+  </si>
+  <si>
+    <t>011101</t>
+  </si>
+  <si>
+    <t>0101100</t>
+  </si>
+  <si>
+    <t>1101100</t>
+  </si>
+  <si>
+    <t>1010001</t>
+  </si>
+  <si>
+    <t>0111101</t>
+  </si>
+  <si>
+    <t>1111101</t>
+  </si>
+  <si>
+    <t>10010001</t>
+  </si>
+  <si>
+    <t>000010001</t>
+  </si>
+  <si>
+    <t>100010001</t>
+  </si>
+  <si>
+    <t>Избыточность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000;[Red]0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +398,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,704 +758,3673 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>0.16518684126477165</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="O2">
+        <f>C2*A2</f>
+        <v>0.3303736825295433</v>
+      </c>
+      <c r="P2">
+        <f>-(C2*LOG(C2, 2))</f>
+        <v>0.42912722087294808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>9.8562759501756622E-2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="O3">
+        <f t="shared" ref="O3:O32" si="0">C3*A3</f>
+        <v>0.29568827850526985</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P32" si="1">-(C3*LOG(C3, 2))</f>
+        <v>0.32947692714567384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>6.9881826892366661E-2</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>0.27952730756946664</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>0.26827206123062425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>6.2216544235068671E-2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.31108272117534336</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>0.24927418842984062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="2">
         <v>6.0811242414564037E-2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.30405621207282019</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0.24564811592025682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="2">
         <v>5.2443308847013731E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="12">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.20977323538805492</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0.22304650450334046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>5.1229639092941551E-2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.2049185563717662</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.2196151851919535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>4.3244969658256145E-2</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.17297987863302458</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0.19595696302991703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>4.1200894282976686E-2</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.20600447141488343</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0.18957275291130266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>3.7623762376237622E-2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.22574257425742572</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.17804362221725914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>3.6410092622165442E-2</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.21846055573299267</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.17402268502172719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>2.9702970297029702E-2</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>0.14851485148514851</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0.15069056382269222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>2.7914404343660174E-2</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.13957202171830085</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0.14411778249093674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="2">
         <v>2.6636857234110509E-2</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0.13318428617055256</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0.13932227883618209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>2.4656659214308527E-2</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="I16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>0.14793995528585116</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0.13171288638726092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>2.2612583839029064E-2</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>0.13567550303417439</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0.12361689809210058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>1.9290961354199936E-2</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>9.6454806770999685E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0.10987998766577374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="2">
         <v>1.5905461513893326E-2</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="I18">
+      <c r="I19" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>9.5432769083359958E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>9.502453880763527E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="2">
         <v>1.5138933248163526E-2</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
         <v>1</v>
       </c>
-      <c r="J19">
+      <c r="J20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0.10597253273714469</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>9.1523823409344132E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="2">
         <v>1.3733631427658896E-2</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>9.6135419993612276E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>8.4958208448665792E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="2">
         <v>1.3669754072181411E-2</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H22" s="12">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I22" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>8.2018524433088463E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>8.4654994886472407E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="2">
         <v>1.3286489939316512E-2</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="J23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>9.3005429575215584E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>8.2826598743919982E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <v>1.3222612583839029E-2</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>9.2558288086873206E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>8.2520327602620777E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>9.7093580325774507E-3</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="12">
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>6.796550622804215E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>6.4920732860845223E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <v>8.9428297668476524E-3</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>6.2599808367933565E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>6.0856429380475835E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.1542638134781218E-3</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>7.1542638134781218E-3</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>5.7234110507824974E-2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>5.0988302024175279E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.1542638134781218E-3</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>5.7234110507824974E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>5.0988302024175279E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C29" s="2">
         <v>4.9185563717662091E-3</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12">
         <v>1</v>
       </c>
-      <c r="K28">
+      <c r="K29" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>3.9348450974129673E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>3.7713273698147372E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>3.5771319067390609E-3</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
         <v>1</v>
       </c>
-      <c r="L29">
+      <c r="L30" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="M30" s="13"/>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>3.2194187160651547E-2</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>2.9071282918826699E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C31" s="2">
         <v>3.4493771957840947E-3</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12">
         <v>1</v>
       </c>
-      <c r="M30">
+      <c r="M31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>3.4493771957840945E-2</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>2.8214002736287349E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C32" s="2">
         <v>5.1101884381986589E-4</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="4"/>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>5.1101884381986587E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>5.5876516834371297E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f>SUM(P2:P32)</f>
+        <v>4.3512450929948194</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="37">
+        <f>SUM(O2:O32)</f>
+        <v>4.4812519961673605</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="37">
+        <f>1-(B34/B36)</f>
+        <v>2.9011290434845183E-2</v>
+      </c>
+      <c r="C37" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B1:D31">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
-  <mergeCells count="29">
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G31"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H31"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F17:F31"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="D6:D31"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="E12:E31"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F11"/>
+  <mergeCells count="30">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D32"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="E13:E32"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="F18:F32"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G22:G32"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.165187</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="32">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2">
+        <f>B2*D2</f>
+        <v>0.49556100000000003</v>
+      </c>
+      <c r="G2" s="3">
+        <f>-B2*LOG(B2, 2)</f>
+        <v>0.42912740423334289</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="28"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="19"/>
+      <c r="BL2" s="19"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="25">
+        <v>9.8562999999999998E-2</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="32">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F32" si="0">B3*D3</f>
+        <v>0.29568899999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G32" si="1">-B3*LOG(B3, 2)</f>
+        <v>0.32947738412041216</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="28"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="19"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="25">
+        <v>6.9882E-2</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="32">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.279528</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.26827247603841226</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="19"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="25">
+        <v>6.2217000000000001E-2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="32">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24886800000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24927535694622402</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="28"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="25">
+        <v>6.0810999999999997E-2</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="32">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24324399999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24564748641182402</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="28"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="4"/>
+      <c r="BF6" s="4"/>
+      <c r="BG6" s="4"/>
+      <c r="BH6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="25">
+        <v>5.2442999999999997E-2</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="32">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20977199999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2230456365176289</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="28"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="25">
+        <v>5.1229999999999998E-2</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="32">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20491999999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21961621167563058</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="28"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+      <c r="BE8" s="4"/>
+      <c r="BF8" s="4"/>
+      <c r="BG8" s="4"/>
+      <c r="BH8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="25">
+        <v>4.3244999999999999E-2</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="32">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.216225</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19595705674428629</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="28"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="25">
+        <v>4.1201000000000002E-2</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="32">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20600499999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.18957308681679191</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="25">
+        <v>3.7623999999999998E-2</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="32">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18811999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17804440388358803</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3.6409999999999998E-2</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="32">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.18204999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.17402237595780953</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="28"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+      <c r="BE12" s="4"/>
+      <c r="BF12" s="4"/>
+      <c r="BG12" s="4"/>
+      <c r="BH12" s="4"/>
+      <c r="BI12" s="4"/>
+      <c r="BJ12" s="4"/>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25">
+        <v>2.9703E-2</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.14851500000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15069067166090669</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="28"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="25">
+        <v>2.7914000000000001E-2</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="32">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13957</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14411627826708737</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="28"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="25">
+        <v>2.6637000000000001E-2</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="32">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.133185</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13932281959531118</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="28"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4"/>
+      <c r="BJ15" s="4"/>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="25">
+        <v>2.4656999999999998E-2</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="32">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.12328499999999999</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13171421516991413</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="28"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BE16" s="4"/>
+      <c r="BF16" s="4"/>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="25">
+        <v>2.2613000000000001E-2</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="32">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.113065</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.12361857273301211</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="28"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1.9290999999999999E-2</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="32">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11574599999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10988015203543015</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="28"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1.5904999999999999E-2</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="32">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>9.5429999999999987E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>9.5022447383656533E-2</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="28"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1.5139E-2</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="32">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0833999999999998E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>9.1524130660999597E-2</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="28"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1.3734E-2</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="32">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2404000000000005E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4959956745264048E-2</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="28"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="18"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1.367E-2</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="32">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>8.2019999999999996E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>8.4656163083176375E-2</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="28"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1.3285999999999999E-2</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="32">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9715999999999995E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>8.2824251333081189E-2</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="28"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.3223E-2</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="32">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>7.9338000000000006E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>8.252218647679245E-2</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="28"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="25">
+        <v>9.7090000000000006E-3</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="32">
+        <v>7</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>6.796300000000001E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4918855431121275E-2</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="28"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="25">
+        <v>8.9429999999999996E-3</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="32">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.260099999999999E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>6.0857342229215759E-2</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="28"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="25">
+        <v>7.1539999999999998E-3</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="32">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0077999999999998E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0986802425917299E-2</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="28"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="25">
+        <v>7.1539999999999998E-3</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="32">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0077999999999998E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>5.0986802425917299E-2</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="28"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+      <c r="BD28" s="4"/>
+      <c r="BE28" s="4"/>
+      <c r="BF28" s="4"/>
+      <c r="BG28" s="4"/>
+      <c r="BH28" s="4"/>
+      <c r="BI28" s="4"/>
+      <c r="BJ28" s="4"/>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="25">
+        <v>4.9189999999999998E-3</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="32">
+        <v>7</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4432999999999998E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>3.771603519040656E-2</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="28"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
+      <c r="AY29" s="4"/>
+      <c r="AZ29" s="4"/>
+      <c r="BA29" s="4"/>
+      <c r="BB29" s="4"/>
+      <c r="BC29" s="4"/>
+      <c r="BD29" s="4"/>
+      <c r="BE29" s="4"/>
+      <c r="BF29" s="4"/>
+      <c r="BG29" s="4"/>
+      <c r="BH29" s="4"/>
+      <c r="BI29" s="4"/>
+      <c r="BJ29" s="4"/>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="25">
+        <v>3.5769999999999999E-3</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="32">
+        <v>8</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8615999999999999E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>2.907040121295865E-2</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="28"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
+      <c r="V30" s="30"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
+      <c r="AY30" s="4"/>
+      <c r="AZ30" s="4"/>
+      <c r="BA30" s="4"/>
+      <c r="BB30" s="4"/>
+      <c r="BC30" s="4"/>
+      <c r="BD30" s="4"/>
+      <c r="BE30" s="4"/>
+      <c r="BF30" s="4"/>
+      <c r="BG30" s="4"/>
+      <c r="BH30" s="4"/>
+      <c r="BI30" s="4"/>
+      <c r="BJ30" s="4"/>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="25">
+        <v>3.4489999999999998E-3</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="32">
+        <v>9</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1040999999999999E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>2.821146163157259E-2</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="28"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
+      <c r="V31" s="30"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="4"/>
+      <c r="AO31" s="4"/>
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="4"/>
+      <c r="AR31" s="4"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="4"/>
+      <c r="AU31" s="4"/>
+      <c r="AV31" s="4"/>
+      <c r="AW31" s="4"/>
+      <c r="AX31" s="4"/>
+      <c r="AY31" s="4"/>
+      <c r="AZ31" s="4"/>
+      <c r="BA31" s="4"/>
+      <c r="BB31" s="4"/>
+      <c r="BC31" s="4"/>
+      <c r="BD31" s="4"/>
+      <c r="BE31" s="4"/>
+      <c r="BF31" s="4"/>
+      <c r="BG31" s="4"/>
+      <c r="BH31" s="4"/>
+      <c r="BI31" s="4"/>
+      <c r="BJ31" s="4"/>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="26">
+        <v>5.1000000000000004E-4</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5900000000000003E-3</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>5.5779797175573125E-3</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="28"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <f>SUM(G2:G32)</f>
+        <v>4.3512364047552508</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="15"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="36">
+        <f>SUM(F2:F32)</f>
+        <v>4.3824900000000007</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="O36" s="24"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="37">
+        <f>1-(B34/B36)</f>
+        <v>7.1314698367251905E-3</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="O37" s="24"/>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="O38" s="24"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="O39" s="24"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="O40" s="24"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="O41" s="24"/>
+    </row>
+  </sheetData>
+  <sortState ref="G2:H30">
+    <sortCondition descending="1" ref="H30"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>